--- a/documents/株予測システム処理概要.xlsx
+++ b/documents/株予測システム処理概要.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\git\kabukayosoku\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE19E1A-22BD-4C3C-8A99-B63F1F7E9ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C426664E-FC4D-4954-B755-D31D6439CD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="405" windowWidth="14400" windowHeight="7485" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銘柄マスタメンテナンス" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="284">
   <si>
     <t>■銘柄マスタメンテナンス</t>
     <rPh sb="1" eb="3">
@@ -2654,6 +2654,25 @@
   </si>
   <si>
     <t>WK．ツイート情報[idx2]．つぶやきURL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Janomeを用いた形態素解析処理</t>
+    <rPh sb="7" eb="8">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2709,7 +2728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2731,6 +2750,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,7 +2889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2910,6 +2935,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3193,7 +3222,7 @@
   <dimension ref="A1:AO57"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD28"/>
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
@@ -4245,7 +4274,7 @@
   <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView topLeftCell="A73" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AE89" sqref="AE89"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
@@ -5275,37 +5304,37 @@
       <c r="AC87" s="2"/>
       <c r="AD87" s="3"/>
     </row>
-    <row r="88" spans="3:30">
-      <c r="E88" s="1" t="s">
+    <row r="88" spans="3:30" s="34" customFormat="1">
+      <c r="E88" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="1" t="s">
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="2"/>
-      <c r="AC88" s="2"/>
-      <c r="AD88" s="3"/>
+      <c r="Q88" s="46"/>
+      <c r="R88" s="46"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
+      <c r="X88" s="46"/>
+      <c r="Y88" s="46"/>
+      <c r="Z88" s="46"/>
+      <c r="AA88" s="46"/>
+      <c r="AB88" s="46"/>
+      <c r="AC88" s="46"/>
+      <c r="AD88" s="47"/>
     </row>
     <row r="90" spans="3:30">
       <c r="D90" t="s">
@@ -6615,7 +6644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554EDEE0-D67B-4B0D-B46E-874B7C96E8C2}">
   <dimension ref="A1:AF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
   <sheetData>
@@ -7703,23 +7732,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B3FF33-8DD9-4A73-9C43-91DA20F95AF2}">
-  <dimension ref="A1:AN114"/>
+  <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:36">
       <c r="B3" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:36">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -7727,27 +7756,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:36">
       <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:36">
       <c r="D9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:36">
       <c r="D10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:36">
       <c r="D11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:36">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -7755,101 +7784,112 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="D15" t="s">
+    <row r="14" spans="1:36">
+      <c r="D14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="N15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="N16" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="4:23">
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="N17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="4:23">
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" s="9"/>
-      <c r="P18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:23">
+      <c r="E14" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="D15" s="33"/>
+      <c r="E15" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="6"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="D16" s="33"/>
+      <c r="E16" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="3"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+    </row>
+    <row r="17" spans="4:27">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+    </row>
+    <row r="19" spans="4:27">
       <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>212</v>
+      <c r="E19" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -7858,17 +7898,21 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
       <c r="N19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="O19" s="9"/>
-      <c r="P19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:23">
-      <c r="E20" s="9"/>
+      <c r="P19" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="4:27">
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -7876,16 +7920,20 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="O20" s="9"/>
-    </row>
-    <row r="21" spans="4:23">
+      <c r="P20" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="4:27">
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -7894,17 +7942,22 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="N21" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="O21" s="9"/>
-    </row>
-    <row r="22" spans="4:23">
+      <c r="P21" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="4:27">
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
       <c r="E22" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>180</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -7912,138 +7965,114 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="N22" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="O22" s="9"/>
-    </row>
-    <row r="23" spans="4:23">
-      <c r="E23" s="9"/>
-      <c r="F23" s="4" t="s">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27">
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:27">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="4:27">
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="4:27">
+      <c r="E26" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="4:27">
+      <c r="E27" s="9"/>
+      <c r="F27" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="4:23">
-      <c r="E24" s="9"/>
-      <c r="F24" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="4:23">
-      <c r="E25" s="9"/>
-      <c r="F25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="4:23">
-      <c r="E26" s="9"/>
-      <c r="F26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="4:23">
-      <c r="E27" s="9"/>
-      <c r="F27" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="4:23">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="4:27">
       <c r="E28" s="9"/>
       <c r="F28" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -8054,7 +8083,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -8065,10 +8094,10 @@
       <c r="V28" s="2"/>
       <c r="W28" s="3"/>
     </row>
-    <row r="29" spans="4:23">
+    <row r="29" spans="4:27">
       <c r="E29" s="9"/>
       <c r="F29" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -8078,8 +8107,8 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="17">
-        <v>5</v>
+      <c r="O29" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -8090,677 +8119,588 @@
       <c r="V29" s="2"/>
       <c r="W29" s="3"/>
     </row>
-    <row r="30" spans="4:23">
+    <row r="30" spans="4:27">
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="32" spans="4:23">
-      <c r="D32" t="s">
+      <c r="F30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="4:27">
+      <c r="E31" s="9"/>
+      <c r="F31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="4:27">
+      <c r="E32" s="9"/>
+      <c r="F32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="1">
+        <v>3</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="4:31">
+      <c r="E33" s="9"/>
+      <c r="F33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="17">
+        <v>5</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="4:31">
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="36" spans="4:31" s="34" customFormat="1">
+      <c r="D36" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E36" s="34" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="5:39">
-      <c r="E33" t="s">
+    <row r="37" spans="4:31">
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="4:31">
+      <c r="E38" t="s">
         <v>106</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F38" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="5:39">
-      <c r="F34" t="s">
+    <row r="39" spans="4:31">
+      <c r="F39" t="s">
         <v>2</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G39" t="s">
         <v>140</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S39" t="s">
         <v>58</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U39" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="5:39">
-      <c r="F36" t="s">
+    <row r="41" spans="4:31">
+      <c r="F41" t="s">
         <v>2</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G41" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="5:39">
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-    </row>
-    <row r="39" spans="5:39">
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-    </row>
-    <row r="40" spans="5:39">
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-    </row>
-    <row r="41" spans="5:39">
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-    </row>
-    <row r="42" spans="5:39">
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-    </row>
-    <row r="43" spans="5:39">
+    <row r="43" spans="4:31">
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="6"/>
+      <c r="G43" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
       <c r="AE43" s="9"/>
     </row>
-    <row r="44" spans="5:39">
+    <row r="44" spans="4:31">
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="3"/>
+      <c r="G44" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
       <c r="AE44" s="9"/>
     </row>
-    <row r="45" spans="5:39">
+    <row r="45" spans="4:31">
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
       <c r="AD45" s="9"/>
       <c r="AE45" s="9"/>
     </row>
-    <row r="46" spans="5:39">
+    <row r="46" spans="4:31">
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="H46" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>165</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
     </row>
-    <row r="47" spans="5:39">
+    <row r="47" spans="4:31">
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="6"/>
-    </row>
-    <row r="48" spans="5:39">
+      <c r="H47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" spans="4:31">
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="3"/>
-    </row>
-    <row r="49" spans="5:40">
+      <c r="I48" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="6"/>
+      <c r="AC48" s="9"/>
+      <c r="AD48" s="9"/>
+      <c r="AE48" s="9"/>
+    </row>
+    <row r="49" spans="5:39">
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
+      <c r="Q49" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="9" t="s">
-        <v>158</v>
-      </c>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="3"/>
-    </row>
-    <row r="50" spans="5:40">
+      <c r="X49" s="3"/>
+      <c r="AC49" s="9"/>
+      <c r="AD49" s="9"/>
+      <c r="AE49" s="9"/>
+    </row>
+    <row r="50" spans="5:39">
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="I50" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-      <c r="AI50" s="2"/>
-      <c r="AJ50" s="2"/>
-      <c r="AK50" s="2"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" s="3"/>
-    </row>
-    <row r="51" spans="5:40">
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="AC50" s="9"/>
+      <c r="AD50" s="9"/>
+      <c r="AE50" s="9"/>
+    </row>
+    <row r="51" spans="5:39">
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="19"/>
-      <c r="AI51" s="19"/>
-      <c r="AJ51" s="19"/>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="19"/>
-      <c r="AM51" s="20"/>
-    </row>
-    <row r="52" spans="5:40">
+      <c r="H51" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+    </row>
+    <row r="52" spans="5:39">
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="9">
-        <v>0</v>
-      </c>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
-      <c r="AC52" s="9"/>
-      <c r="AD52" s="9"/>
-      <c r="AE52" s="9"/>
-      <c r="AF52" s="9"/>
-      <c r="AG52" s="9"/>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="9"/>
-      <c r="AJ52" s="9"/>
-      <c r="AK52" s="9"/>
-      <c r="AL52" s="9"/>
-      <c r="AM52" s="22"/>
-    </row>
-    <row r="53" spans="5:40">
+      <c r="I52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="6"/>
+    </row>
+    <row r="53" spans="5:39">
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="U53" s="9"/>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9"/>
-      <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
-      <c r="AC53" s="9"/>
-      <c r="AD53" s="9"/>
-      <c r="AE53" s="9"/>
-      <c r="AF53" s="9"/>
-      <c r="AG53" s="9"/>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="9"/>
-      <c r="AJ53" s="9"/>
-      <c r="AK53" s="9"/>
-      <c r="AL53" s="9"/>
-      <c r="AM53" s="22"/>
-    </row>
-    <row r="54" spans="5:40">
+      <c r="I53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="3"/>
+    </row>
+    <row r="54" spans="5:39">
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="24"/>
-      <c r="AB54" s="24"/>
-      <c r="AC54" s="24"/>
-      <c r="AD54" s="24"/>
-      <c r="AE54" s="24"/>
-      <c r="AF54" s="24"/>
-      <c r="AG54" s="24"/>
-      <c r="AH54" s="24"/>
-      <c r="AI54" s="24"/>
-      <c r="AJ54" s="24"/>
-      <c r="AK54" s="24"/>
-      <c r="AL54" s="24"/>
-      <c r="AM54" s="25"/>
-    </row>
-    <row r="55" spans="5:40">
+      <c r="I54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="3"/>
+    </row>
+    <row r="55" spans="5:39">
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="U55" s="19"/>
-      <c r="V55" s="19"/>
-      <c r="W55" s="19"/>
-      <c r="X55" s="19"/>
-      <c r="Y55" s="19"/>
-      <c r="Z55" s="19"/>
-      <c r="AA55" s="19"/>
-      <c r="AB55" s="19"/>
-      <c r="AC55" s="19"/>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="19"/>
-      <c r="AF55" s="19"/>
-      <c r="AG55" s="19"/>
-      <c r="AH55" s="19"/>
-      <c r="AI55" s="19"/>
-      <c r="AJ55" s="19"/>
-      <c r="AK55" s="19"/>
-      <c r="AL55" s="19"/>
-      <c r="AM55" s="20"/>
-    </row>
-    <row r="56" spans="5:40">
+      <c r="I55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="3"/>
+    </row>
+    <row r="56" spans="5:39">
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="9">
-        <v>0</v>
-      </c>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9"/>
-      <c r="AC56" s="9"/>
-      <c r="AD56" s="9"/>
-      <c r="AE56" s="9"/>
-      <c r="AF56" s="9"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="9"/>
-      <c r="AI56" s="9"/>
-      <c r="AJ56" s="9"/>
-      <c r="AK56" s="9"/>
-      <c r="AL56" s="9"/>
-      <c r="AM56" s="22"/>
-    </row>
-    <row r="57" spans="5:40">
+      <c r="I56" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="19"/>
+      <c r="AK56" s="19"/>
+      <c r="AL56" s="19"/>
+      <c r="AM56" s="20"/>
+    </row>
+    <row r="57" spans="5:39">
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
@@ -8776,10 +8716,10 @@
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="22"/>
-      <c r="T57" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="U57" s="9"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="9">
+        <v>0</v>
+      </c>
       <c r="V57" s="9"/>
       <c r="W57" s="9"/>
       <c r="X57" s="9"/>
@@ -8799,551 +8739,611 @@
       <c r="AL57" s="9"/>
       <c r="AM57" s="22"/>
     </row>
-    <row r="58" spans="5:40">
+    <row r="58" spans="5:39">
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="25"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="24"/>
-      <c r="AA58" s="24"/>
-      <c r="AB58" s="24"/>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="24"/>
-      <c r="AE58" s="24"/>
-      <c r="AF58" s="24"/>
-      <c r="AG58" s="24"/>
-      <c r="AH58" s="24"/>
-      <c r="AI58" s="24"/>
-      <c r="AJ58" s="24"/>
-      <c r="AK58" s="24"/>
-      <c r="AL58" s="24"/>
-      <c r="AM58" s="25"/>
-    </row>
-    <row r="59" spans="5:40">
+      <c r="I58" s="21"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
+      <c r="Z58" s="9"/>
+      <c r="AA58" s="9"/>
+      <c r="AB58" s="9"/>
+      <c r="AC58" s="9"/>
+      <c r="AD58" s="9"/>
+      <c r="AE58" s="9"/>
+      <c r="AF58" s="9"/>
+      <c r="AG58" s="9"/>
+      <c r="AH58" s="9"/>
+      <c r="AI58" s="9"/>
+      <c r="AJ58" s="9"/>
+      <c r="AK58" s="9"/>
+      <c r="AL58" s="9"/>
+      <c r="AM58" s="22"/>
+    </row>
+    <row r="59" spans="5:39">
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-    </row>
-    <row r="60" spans="5:40">
+      <c r="I59" s="23"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="23"/>
+      <c r="U59" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="24"/>
+      <c r="AB59" s="24"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="24"/>
+      <c r="AG59" s="24"/>
+      <c r="AH59" s="24"/>
+      <c r="AI59" s="24"/>
+      <c r="AJ59" s="24"/>
+      <c r="AK59" s="24"/>
+      <c r="AL59" s="24"/>
+      <c r="AM59" s="25"/>
+    </row>
+    <row r="60" spans="5:39">
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
-      <c r="H60" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="AC60" s="9"/>
-      <c r="AD60" s="9"/>
-      <c r="AE60" s="9"/>
-    </row>
-    <row r="61" spans="5:40">
+      <c r="H60" s="10"/>
+      <c r="I60" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="19"/>
+      <c r="AJ60" s="19"/>
+      <c r="AK60" s="19"/>
+      <c r="AL60" s="19"/>
+      <c r="AM60" s="20"/>
+    </row>
+    <row r="61" spans="5:39">
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
-      <c r="I61" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K61" s="10"/>
-      <c r="Q61" t="s">
-        <v>169</v>
-      </c>
-      <c r="T61" t="s">
-        <v>170</v>
-      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="9">
+        <v>0</v>
+      </c>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="9"/>
+      <c r="AA61" s="9"/>
+      <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
       <c r="AD61" s="9"/>
       <c r="AE61" s="9"/>
-    </row>
-    <row r="62" spans="5:40">
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="22"/>
+    </row>
+    <row r="62" spans="5:39">
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
       <c r="AE62" s="9"/>
-    </row>
-    <row r="63" spans="5:40">
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
+      <c r="AM62" s="22"/>
+    </row>
+    <row r="63" spans="5:39">
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
-      <c r="I63" t="s">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="5:40">
+      <c r="I63" s="23"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="24"/>
+      <c r="AI63" s="24"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="24"/>
+      <c r="AL63" s="24"/>
+      <c r="AM63" s="25"/>
+    </row>
+    <row r="64" spans="5:39">
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
-      <c r="J64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="5"/>
-      <c r="AI64" s="5"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="5"/>
-      <c r="AL64" s="5"/>
-      <c r="AM64" s="5"/>
-      <c r="AN64" s="6"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
     </row>
     <row r="65" spans="5:40">
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="J65" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="2"/>
-      <c r="AF65" s="2"/>
-      <c r="AG65" s="2"/>
-      <c r="AH65" s="2"/>
-      <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
-      <c r="AK65" s="2"/>
-      <c r="AL65" s="2"/>
-      <c r="AM65" s="2"/>
-      <c r="AN65" s="3"/>
+      <c r="H65" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
     </row>
     <row r="66" spans="5:40">
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
-      <c r="J66" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="2"/>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
-      <c r="AM66" s="2"/>
-      <c r="AN66" s="3"/>
+      <c r="I66" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="Q66" t="s">
+        <v>169</v>
+      </c>
+      <c r="T66" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
     </row>
     <row r="67" spans="5:40">
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
-      <c r="J67" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="2"/>
-      <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="2"/>
-      <c r="AF67" s="2"/>
-      <c r="AG67" s="2"/>
-      <c r="AH67" s="2"/>
-      <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
-      <c r="AK67" s="2"/>
-      <c r="AL67" s="2"/>
-      <c r="AM67" s="2"/>
-      <c r="AN67" s="3"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
     </row>
     <row r="68" spans="5:40">
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
-      <c r="J68" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="2"/>
-      <c r="AF68" s="2"/>
-      <c r="AG68" s="2"/>
-      <c r="AH68" s="2"/>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="2"/>
-      <c r="AK68" s="2"/>
-      <c r="AL68" s="2"/>
-      <c r="AM68" s="2"/>
-      <c r="AN68" s="3"/>
+      <c r="I68" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="69" spans="5:40">
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
+      <c r="J69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="5"/>
+      <c r="AN69" s="6"/>
     </row>
     <row r="70" spans="5:40">
-      <c r="I70" t="s">
-        <v>2</v>
-      </c>
-      <c r="J70" t="s">
-        <v>175</v>
-      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="J70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2"/>
+      <c r="AL70" s="2"/>
+      <c r="AM70" s="2"/>
+      <c r="AN70" s="3"/>
     </row>
     <row r="71" spans="5:40">
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="6"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="9"/>
-      <c r="AF71" s="9"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="J71" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2"/>
+      <c r="AH71" s="2"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
+      <c r="AK71" s="2"/>
+      <c r="AL71" s="2"/>
+      <c r="AM71" s="2"/>
+      <c r="AN71" s="3"/>
     </row>
     <row r="72" spans="5:40">
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="J72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="R72" s="2"/>
       <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
-      <c r="Y72" s="3"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="9"/>
-      <c r="AF72" s="9"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AK72" s="2"/>
+      <c r="AL72" s="2"/>
+      <c r="AM72" s="2"/>
+      <c r="AN72" s="3"/>
     </row>
     <row r="73" spans="5:40">
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="AD73" s="9"/>
-      <c r="AE73" s="9"/>
-      <c r="AF73" s="9"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="J73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="2"/>
+      <c r="AH73" s="2"/>
+      <c r="AI73" s="2"/>
+      <c r="AJ73" s="2"/>
+      <c r="AK73" s="2"/>
+      <c r="AL73" s="2"/>
+      <c r="AM73" s="2"/>
+      <c r="AN73" s="3"/>
     </row>
     <row r="74" spans="5:40">
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
-      <c r="I74" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>191</v>
-      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
       <c r="AD74" s="9"/>
     </row>
     <row r="75" spans="5:40">
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
-      <c r="AD75" s="5"/>
-      <c r="AE75" s="5"/>
-      <c r="AF75" s="5"/>
-      <c r="AG75" s="5"/>
-      <c r="AH75" s="5"/>
-      <c r="AI75" s="6"/>
+      <c r="I75" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="76" spans="5:40">
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="10"/>
-      <c r="J76" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="2"/>
-      <c r="AG76" s="2"/>
-      <c r="AH76" s="2"/>
-      <c r="AI76" s="3"/>
+      <c r="J76" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="6"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9"/>
     </row>
     <row r="77" spans="5:40">
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
+      <c r="J77" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
+      <c r="R77" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="S77" s="2"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="2"/>
-      <c r="AF77" s="2"/>
-      <c r="AG77" s="2"/>
-      <c r="AH77" s="2"/>
-      <c r="AI77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="9"/>
+      <c r="AF77" s="9"/>
     </row>
     <row r="78" spans="5:40">
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
-      <c r="AB78" s="9"/>
-      <c r="AC78" s="9"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
       <c r="AD78" s="9"/>
+      <c r="AE78" s="9"/>
+      <c r="AF78" s="9"/>
     </row>
     <row r="79" spans="5:40">
       <c r="E79" s="9"/>
@@ -9354,7 +9354,7 @@
         <v>166</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
@@ -9380,7 +9380,7 @@
       <c r="S80" s="5"/>
       <c r="T80" s="6"/>
       <c r="U80" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V80" s="5"/>
       <c r="W80" s="5"/>
@@ -9397,7 +9397,7 @@
       <c r="AH80" s="5"/>
       <c r="AI80" s="6"/>
     </row>
-    <row r="81" spans="4:36">
+    <row r="81" spans="5:36">
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="G81" s="10"/>
@@ -9417,7 +9417,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="3"/>
       <c r="U81" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
@@ -9434,7 +9434,7 @@
       <c r="AH81" s="2"/>
       <c r="AI81" s="3"/>
     </row>
-    <row r="82" spans="4:36">
+    <row r="82" spans="5:36">
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="10"/>
@@ -9454,7 +9454,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="3"/>
       <c r="U82" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
@@ -9471,142 +9471,158 @@
       <c r="AH82" s="2"/>
       <c r="AI82" s="3"/>
     </row>
-    <row r="83" spans="4:36">
+    <row r="83" spans="5:36">
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
-      <c r="Y83" s="9"/>
-      <c r="Z83" s="9"/>
-      <c r="AA83" s="9"/>
+      <c r="J83" s="10"/>
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
       <c r="AD83" s="9"/>
-      <c r="AE83" s="9"/>
-      <c r="AF83" s="9"/>
-      <c r="AG83" s="9"/>
-      <c r="AH83" s="9"/>
-      <c r="AI83" s="9"/>
-    </row>
-    <row r="84" spans="4:36">
+    </row>
+    <row r="84" spans="5:36">
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J84" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
       <c r="AD84" s="9"/>
     </row>
-    <row r="85" spans="4:36">
+    <row r="85" spans="5:36">
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="10"/>
-      <c r="H85" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
-      <c r="P85" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="V85" s="5"/>
-      <c r="W85" s="6"/>
-      <c r="AB85" s="9"/>
-      <c r="AC85" s="9"/>
-      <c r="AD85" s="9"/>
-    </row>
-    <row r="86" spans="4:36">
+      <c r="W85" s="5"/>
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5"/>
+      <c r="Z85" s="5"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="5"/>
+      <c r="AF85" s="5"/>
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="6"/>
+    </row>
+    <row r="86" spans="5:36">
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="10"/>
-      <c r="H86" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
-      <c r="P86" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="V86" s="2"/>
-      <c r="W86" s="3"/>
-      <c r="AB86" s="9"/>
-      <c r="AC86" s="9"/>
-      <c r="AD86" s="9"/>
-    </row>
-    <row r="87" spans="4:36">
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="2"/>
+      <c r="AH86" s="2"/>
+      <c r="AI86" s="3"/>
+    </row>
+    <row r="87" spans="5:36">
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="AB87" s="9"/>
-      <c r="AC87" s="9"/>
-      <c r="AD87" s="9"/>
-    </row>
-    <row r="88" spans="4:36">
+      <c r="J87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+      <c r="AG87" s="2"/>
+      <c r="AH87" s="2"/>
+      <c r="AI87" s="3"/>
+    </row>
+    <row r="88" spans="5:36">
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="10"/>
-      <c r="H88" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I88" s="9"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
-      <c r="P88" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="P88" s="9"/>
       <c r="Q88" s="9"/>
-      <c r="R88" s="9" t="s">
-        <v>215</v>
-      </c>
+      <c r="R88" s="9"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
@@ -9624,153 +9640,112 @@
       <c r="AG88" s="9"/>
       <c r="AH88" s="9"/>
       <c r="AI88" s="9"/>
-      <c r="AJ88" s="9"/>
-    </row>
-    <row r="89" spans="4:36">
+    </row>
+    <row r="89" spans="5:36">
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q89" s="9"/>
-      <c r="R89" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-      <c r="U89" s="9"/>
-      <c r="V89" s="9"/>
-      <c r="W89" s="9"/>
-      <c r="X89" s="9"/>
-      <c r="Y89" s="9"/>
-      <c r="Z89" s="9"/>
-      <c r="AA89" s="9"/>
+      <c r="G89" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
       <c r="AD89" s="9"/>
-      <c r="AE89" s="9"/>
-      <c r="AF89" s="9"/>
-      <c r="AG89" s="9"/>
-      <c r="AH89" s="9"/>
-      <c r="AI89" s="9"/>
-      <c r="AJ89" s="9"/>
-    </row>
-    <row r="90" spans="4:36">
-      <c r="H90" t="s">
-        <v>224</v>
-      </c>
-      <c r="P90" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="R90" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="4:36">
+    </row>
+    <row r="90" spans="5:36">
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="6"/>
+      <c r="AB90" s="9"/>
+      <c r="AC90" s="9"/>
+      <c r="AD90" s="9"/>
+    </row>
+    <row r="91" spans="5:36">
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="9"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
-      <c r="X91" s="9"/>
-      <c r="Y91" s="9"/>
-      <c r="Z91" s="9"/>
-      <c r="AA91" s="9"/>
+      <c r="H91" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="3"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
       <c r="AD91" s="9"/>
-      <c r="AE91" s="9"/>
-      <c r="AF91" s="9"/>
-      <c r="AG91" s="9"/>
-      <c r="AH91" s="9"/>
-      <c r="AI91" s="9"/>
-      <c r="AJ91" s="9"/>
-    </row>
-    <row r="92" spans="4:36">
+    </row>
+    <row r="92" spans="5:36">
       <c r="E92" s="9"/>
-      <c r="G92" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>217</v>
-      </c>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
       <c r="I92" s="10"/>
       <c r="J92" s="10"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="9"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="9"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
-      <c r="X92" s="9"/>
-      <c r="Y92" s="9"/>
-      <c r="Z92" s="9"/>
-      <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
       <c r="AD92" s="9"/>
-      <c r="AE92" s="9"/>
-      <c r="AF92" s="9"/>
-      <c r="AG92" s="9"/>
-      <c r="AH92" s="9"/>
-      <c r="AI92" s="9"/>
-      <c r="AJ92" s="9"/>
-    </row>
-    <row r="93" spans="4:36">
+    </row>
+    <row r="93" spans="5:36">
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="10"/>
-      <c r="H93" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
+      <c r="H93" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
-      <c r="P93" s="9"/>
+      <c r="P93" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="Q93" s="9"/>
       <c r="R93" s="9" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="S93" s="9"/>
-      <c r="T93" s="9" t="s">
-        <v>218</v>
-      </c>
+      <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
       <c r="W93" s="9"/>
@@ -9788,29 +9763,29 @@
       <c r="AI93" s="9"/>
       <c r="AJ93" s="9"/>
     </row>
-    <row r="94" spans="4:36">
+    <row r="94" spans="5:36">
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="10"/>
-      <c r="H94" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
+      <c r="H94" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
-      <c r="P94" s="9"/>
+      <c r="P94" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="Q94" s="9"/>
       <c r="R94" s="9" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="S94" s="9"/>
-      <c r="T94" s="9" t="s">
-        <v>219</v>
-      </c>
+      <c r="T94" s="9"/>
       <c r="U94" s="9"/>
       <c r="V94" s="9"/>
       <c r="W94" s="9"/>
@@ -9828,506 +9803,677 @@
       <c r="AI94" s="9"/>
       <c r="AJ94" s="9"/>
     </row>
-    <row r="95" spans="4:36">
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="9"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="9"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="9"/>
-      <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
-      <c r="X95" s="9"/>
-      <c r="Y95" s="9"/>
-      <c r="Z95" s="9"/>
-      <c r="AA95" s="9"/>
-      <c r="AB95" s="9"/>
-      <c r="AC95" s="9"/>
-      <c r="AD95" s="9"/>
-      <c r="AE95" s="9"/>
-      <c r="AF95" s="9"/>
-      <c r="AG95" s="9"/>
-      <c r="AH95" s="9"/>
-      <c r="AI95" s="9"/>
-      <c r="AJ95" s="9"/>
-    </row>
-    <row r="96" spans="4:36">
-      <c r="D96" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="97" spans="3:35">
-      <c r="D97" s="10"/>
-      <c r="E97" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="6"/>
+    <row r="95" spans="5:36">
+      <c r="H95" t="s">
+        <v>224</v>
+      </c>
+      <c r="P95" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="5:36">
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
+      <c r="Z96" s="9"/>
+      <c r="AA96" s="9"/>
+      <c r="AB96" s="9"/>
+      <c r="AC96" s="9"/>
+      <c r="AD96" s="9"/>
+      <c r="AE96" s="9"/>
+      <c r="AF96" s="9"/>
+      <c r="AG96" s="9"/>
+      <c r="AH96" s="9"/>
+      <c r="AI96" s="9"/>
+      <c r="AJ96" s="9"/>
+    </row>
+    <row r="97" spans="1:36">
+      <c r="E97" s="9"/>
+      <c r="G97" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="9"/>
       <c r="Y97" s="9"/>
       <c r="Z97" s="9"/>
       <c r="AA97" s="9"/>
-    </row>
-    <row r="98" spans="3:35">
-      <c r="D98" s="10"/>
-      <c r="E98" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="3"/>
+      <c r="AB97" s="9"/>
+      <c r="AC97" s="9"/>
+      <c r="AD97" s="9"/>
+      <c r="AE97" s="9"/>
+      <c r="AF97" s="9"/>
+      <c r="AG97" s="9"/>
+      <c r="AH97" s="9"/>
+      <c r="AI97" s="9"/>
+      <c r="AJ97" s="9"/>
+    </row>
+    <row r="98" spans="1:36">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
-    </row>
-    <row r="99" spans="3:35" s="27" customFormat="1">
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="15"/>
-      <c r="AA99" s="15"/>
-    </row>
-    <row r="100" spans="3:35">
-      <c r="D100" s="10"/>
-      <c r="E100" s="4" t="s">
+      <c r="AB98" s="9"/>
+      <c r="AC98" s="9"/>
+      <c r="AD98" s="9"/>
+      <c r="AE98" s="9"/>
+      <c r="AF98" s="9"/>
+      <c r="AG98" s="9"/>
+      <c r="AH98" s="9"/>
+      <c r="AI98" s="9"/>
+      <c r="AJ98" s="9"/>
+    </row>
+    <row r="99" spans="1:36">
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
+      <c r="Z99" s="9"/>
+      <c r="AA99" s="9"/>
+      <c r="AB99" s="9"/>
+      <c r="AC99" s="9"/>
+      <c r="AD99" s="9"/>
+      <c r="AE99" s="9"/>
+      <c r="AF99" s="9"/>
+      <c r="AG99" s="9"/>
+      <c r="AH99" s="9"/>
+      <c r="AI99" s="9"/>
+      <c r="AJ99" s="9"/>
+    </row>
+    <row r="100" spans="1:36">
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
+      <c r="Z100" s="9"/>
+      <c r="AA100" s="9"/>
+      <c r="AB100" s="9"/>
+      <c r="AC100" s="9"/>
+      <c r="AD100" s="9"/>
+      <c r="AE100" s="9"/>
+      <c r="AF100" s="9"/>
+      <c r="AG100" s="9"/>
+      <c r="AH100" s="9"/>
+      <c r="AI100" s="9"/>
+      <c r="AJ100" s="9"/>
+    </row>
+    <row r="101" spans="1:36">
+      <c r="A101" s="48"/>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36">
+      <c r="A102" s="48"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="6"/>
+      <c r="Y102" s="9"/>
+      <c r="Z102" s="9"/>
+      <c r="AA102" s="9"/>
+    </row>
+    <row r="103" spans="1:36">
+      <c r="A103" s="48"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="3"/>
+      <c r="Y103" s="9"/>
+      <c r="Z103" s="9"/>
+      <c r="AA103" s="9"/>
+    </row>
+    <row r="104" spans="1:36" s="27" customFormat="1">
+      <c r="A104" s="48"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="15"/>
+      <c r="AA104" s="15"/>
+    </row>
+    <row r="105" spans="1:36">
+      <c r="A105" s="48"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="4" t="s">
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5"/>
-      <c r="V100" s="5"/>
-      <c r="W100" s="5"/>
-      <c r="X100" s="5"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
-      <c r="AB100" s="5"/>
-      <c r="AC100" s="5"/>
-      <c r="AD100" s="5"/>
-      <c r="AE100" s="5"/>
-      <c r="AF100" s="5"/>
-      <c r="AG100" s="5"/>
-      <c r="AH100" s="5"/>
-      <c r="AI100" s="6"/>
-    </row>
-    <row r="101" spans="3:35">
-      <c r="D101" s="10"/>
-      <c r="E101" s="1" t="s">
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+      <c r="AG105" s="5"/>
+      <c r="AH105" s="5"/>
+      <c r="AI105" s="6"/>
+    </row>
+    <row r="106" spans="1:36">
+      <c r="A106" s="48"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="1" t="s">
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-      <c r="AA101" s="2"/>
-      <c r="AB101" s="2"/>
-      <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-      <c r="AE101" s="2"/>
-      <c r="AF101" s="2"/>
-      <c r="AG101" s="2"/>
-      <c r="AH101" s="2"/>
-      <c r="AI101" s="3"/>
-    </row>
-    <row r="102" spans="3:35">
-      <c r="D102" s="10"/>
-      <c r="E102" s="18" t="s">
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+      <c r="AF106" s="2"/>
+      <c r="AG106" s="2"/>
+      <c r="AH106" s="2"/>
+      <c r="AI106" s="3"/>
+    </row>
+    <row r="107" spans="1:36">
+      <c r="A107" s="48"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="19" t="s">
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
-      <c r="S102" s="19"/>
-      <c r="T102" s="19"/>
-      <c r="U102" s="19"/>
-      <c r="V102" s="19"/>
-      <c r="W102" s="19"/>
-      <c r="X102" s="19"/>
-      <c r="Y102" s="19"/>
-      <c r="Z102" s="19"/>
-      <c r="AA102" s="19"/>
-      <c r="AB102" s="19"/>
-      <c r="AC102" s="19"/>
-      <c r="AD102" s="19"/>
-      <c r="AE102" s="19"/>
-      <c r="AF102" s="19"/>
-      <c r="AG102" s="19"/>
-      <c r="AH102" s="19"/>
-      <c r="AI102" s="20"/>
-    </row>
-    <row r="103" spans="3:35">
-      <c r="D103" s="10"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="25"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24" t="s">
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="19"/>
+      <c r="U107" s="19"/>
+      <c r="V107" s="19"/>
+      <c r="W107" s="19"/>
+      <c r="X107" s="19"/>
+      <c r="Y107" s="19"/>
+      <c r="Z107" s="19"/>
+      <c r="AA107" s="19"/>
+      <c r="AB107" s="19"/>
+      <c r="AC107" s="19"/>
+      <c r="AD107" s="19"/>
+      <c r="AE107" s="19"/>
+      <c r="AF107" s="19"/>
+      <c r="AG107" s="19"/>
+      <c r="AH107" s="19"/>
+      <c r="AI107" s="20"/>
+    </row>
+    <row r="108" spans="1:36">
+      <c r="A108" s="48"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="24"/>
+      <c r="Q108" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="R103" s="24"/>
-      <c r="S103" s="24" t="s">
+      <c r="R108" s="24"/>
+      <c r="S108" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="T103" s="24"/>
-      <c r="U103" s="24"/>
-      <c r="V103" s="24"/>
-      <c r="W103" s="24"/>
-      <c r="X103" s="24"/>
-      <c r="Y103" s="24"/>
-      <c r="Z103" s="24"/>
-      <c r="AA103" s="24"/>
-      <c r="AB103" s="24"/>
-      <c r="AC103" s="24"/>
-      <c r="AD103" s="24"/>
-      <c r="AE103" s="24"/>
-      <c r="AF103" s="24"/>
-      <c r="AG103" s="24"/>
-      <c r="AH103" s="24"/>
-      <c r="AI103" s="25"/>
-    </row>
-    <row r="104" spans="3:35">
-      <c r="D104" s="10"/>
-      <c r="E104" s="1" t="s">
+      <c r="T108" s="24"/>
+      <c r="U108" s="24"/>
+      <c r="V108" s="24"/>
+      <c r="W108" s="24"/>
+      <c r="X108" s="24"/>
+      <c r="Y108" s="24"/>
+      <c r="Z108" s="24"/>
+      <c r="AA108" s="24"/>
+      <c r="AB108" s="24"/>
+      <c r="AC108" s="24"/>
+      <c r="AD108" s="24"/>
+      <c r="AE108" s="24"/>
+      <c r="AF108" s="24"/>
+      <c r="AG108" s="24"/>
+      <c r="AH108" s="24"/>
+      <c r="AI108" s="25"/>
+    </row>
+    <row r="109" spans="1:36">
+      <c r="A109" s="48"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="1" t="s">
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
-      <c r="AA104" s="2"/>
-      <c r="AB104" s="2"/>
-      <c r="AC104" s="2"/>
-      <c r="AD104" s="2"/>
-      <c r="AE104" s="2"/>
-      <c r="AF104" s="2"/>
-      <c r="AG104" s="2"/>
-      <c r="AH104" s="2"/>
-      <c r="AI104" s="3"/>
-    </row>
-    <row r="105" spans="3:35">
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="AC105" s="9"/>
-      <c r="AD105" s="9"/>
-      <c r="AE105" s="9"/>
-    </row>
-    <row r="106" spans="3:35">
-      <c r="C106" t="s">
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+      <c r="AF109" s="2"/>
+      <c r="AG109" s="2"/>
+      <c r="AH109" s="2"/>
+      <c r="AI109" s="3"/>
+    </row>
+    <row r="110" spans="1:36">
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="AC110" s="9"/>
+      <c r="AD110" s="9"/>
+      <c r="AE110" s="9"/>
+    </row>
+    <row r="111" spans="1:36">
+      <c r="C111" t="s">
         <v>2</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D111" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="3:35">
-      <c r="D107" t="s">
+    <row r="112" spans="1:36">
+      <c r="D112" t="s">
         <v>2</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E112" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="3:35">
-      <c r="E109" s="4" t="s">
+    <row r="114" spans="5:28">
+      <c r="E114" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="4" t="s">
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5"/>
-      <c r="V109" s="5"/>
-      <c r="W109" s="5"/>
-      <c r="X109" s="5"/>
-      <c r="Y109" s="5"/>
-      <c r="Z109" s="5"/>
-      <c r="AA109" s="5"/>
-      <c r="AB109" s="6"/>
-    </row>
-    <row r="110" spans="3:35">
-      <c r="E110" s="1" t="s">
+      <c r="O114" s="5"/>
+      <c r="P114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="R114" s="5"/>
+      <c r="S114" s="5"/>
+      <c r="T114" s="5"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="5"/>
+      <c r="W114" s="5"/>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
+      <c r="Z114" s="5"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="6"/>
+    </row>
+    <row r="115" spans="5:28">
+      <c r="E115" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="1" t="s">
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="3"/>
-    </row>
-    <row r="111" spans="3:35">
-      <c r="E111" s="1" t="s">
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="3"/>
+    </row>
+    <row r="116" spans="5:28">
+      <c r="E116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="1" t="s">
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-      <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
-      <c r="AB111" s="3"/>
-    </row>
-    <row r="112" spans="3:35">
-      <c r="E112" s="1" t="s">
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="3"/>
+    </row>
+    <row r="117" spans="5:28">
+      <c r="E117" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="1" t="s">
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="3"/>
-    </row>
-    <row r="113" spans="5:28">
-      <c r="E113" s="1" t="s">
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="3"/>
+    </row>
+    <row r="118" spans="5:28">
+      <c r="E118" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="1" t="s">
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
-      <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
-      <c r="AA113" s="2"/>
-      <c r="AB113" s="3"/>
-    </row>
-    <row r="114" spans="5:28">
-      <c r="E114" s="1" t="s">
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="3"/>
+    </row>
+    <row r="119" spans="5:28">
+      <c r="E119" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="1" t="s">
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
-      <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
-      <c r="AB114" s="3"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/株予測システム処理概要.xlsx
+++ b/documents/株予測システム処理概要.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ume\git\kabukayosoku\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C426664E-FC4D-4954-B755-D31D6439CD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0CA027-812E-4A34-862B-6C5BB88FBFD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="405" windowWidth="14400" windowHeight="7485" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="405" windowWidth="14400" windowHeight="7485" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="銘柄マスタメンテナンス" sheetId="1" r:id="rId1"/>
@@ -7734,8 +7734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B3FF33-8DD9-4A73-9C43-91DA20F95AF2}">
   <dimension ref="A1:AN119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q108" sqref="Q108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
@@ -10486,8 +10486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BDFDA5-328B-487C-9BFB-989DE3E4EC89}">
   <dimension ref="A1:AI72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
@@ -11030,7 +11030,7 @@
       <c r="N47" s="2"/>
       <c r="O47" s="3"/>
       <c r="P47" s="1" t="s">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
